--- a/CUKBM/CUKBM_DB.xlsx
+++ b/CUKBM/CUKBM_DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkstk\Desktop\CUKBM 팀플\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoon\Documents\GitHub\CUKBM\CUKBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBD690-2B2A-4EBF-A7E7-B3696464599F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8170F-A3BD-4595-9451-600B451B5C54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D894CB3-DE14-49EA-A73A-B5E5909EBAD6}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="11760" xr2:uid="{6D894CB3-DE14-49EA-A73A-B5E5909EBAD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,63 +122,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>date
+    <t>밀리초까지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert
+(알람)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_match
+(참가한 매치)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_info
+(매치 정보)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_info
+(유저 정보)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>table 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB name : cukbm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_name
+방제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키 match_info의 
+m_name 에 연결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_checked
+(확인여부?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(날짜 시간)
 등록날짜
 (방 만든시간)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀리초까지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert
-(알람)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_match
-(참가한 매치)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_info
-(매치 정보)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_info
-(유저 정보)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>table 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB name : cukbm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_name
-방제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외래키 match_info의 
-m_name 에 연결</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_checked
-(확인여부?)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,8 +275,36 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_Sheet1" xfId="1" xr:uid="{D3652410-DBBA-408C-8B3B-119BA5C2E3E1}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{85763D95-2A65-4FB8-BB3E-8CDC01D65DF4}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -588,7 +616,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -624,7 +652,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -662,7 +690,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
@@ -684,7 +712,7 @@
     </row>
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -730,9 +758,9 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -744,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -775,7 +803,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -792,10 +820,10 @@
     </row>
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -819,7 +847,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -838,7 +866,7 @@
     </row>
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -850,7 +878,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>

--- a/CUKBM/CUKBM_DB.xlsx
+++ b/CUKBM/CUKBM_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoon\Documents\GitHub\CUKBM\CUKBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkstk\Desktop\CUKBM 팀플\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8170F-A3BD-4595-9451-600B451B5C54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA96314-9F1B-4A4C-A499-674C3B3D55A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="11760" xr2:uid="{6D894CB3-DE14-49EA-A73A-B5E5909EBAD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D894CB3-DE14-49EA-A73A-B5E5909EBAD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>id(=email)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>kakao_id</t>
   </si>
@@ -118,7 +115,8 @@
   </si>
   <si>
     <t>date
-(참가시간)</t>
+등록날짜
+(방 만든시간)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -169,17 +167,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>date(날짜 시간)
-등록날짜
-(방 만든시간)</t>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거는 match_info의
+ date와 같은값이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date
+(해당 방 생성시간)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +230,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,42 +290,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_Sheet1" xfId="1" xr:uid="{D3652410-DBBA-408C-8B3B-119BA5C2E3E1}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{85763D95-2A65-4FB8-BB3E-8CDC01D65DF4}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -616,7 +615,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -633,7 +632,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -652,7 +651,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -690,10 +689,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -712,22 +711,22 @@
     </row>
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -758,39 +757,39 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -803,14 +802,22 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2"/>
@@ -818,18 +825,18 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -844,13 +851,15 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -866,19 +875,19 @@
     </row>
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
